--- a/Test Data/ProductId.xlsx
+++ b/Test Data/ProductId.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="5790"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ProdId</t>
   </si>
@@ -27,9 +27,6 @@
     <t>TestProdId</t>
   </si>
   <si>
-    <t>52840696</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -55,12 +52,15 @@
   </si>
   <si>
     <t>3204683</t>
+  </si>
+  <si>
+    <t>1275017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -193,7 +193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -370,7 +370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,42 +400,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
